--- a/reports/IPS/cross.xlsx
+++ b/reports/IPS/cross.xlsx
@@ -547,64 +547,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995840938722295</v>
+        <v>0.9995532772312434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992307692307691</v>
+        <v>0.9989743589743588</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9989826302729528</v>
+        <v>0.9991232423490487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9993382961124895</v>
+        <v>0.9993548387096775</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9984749555529217</v>
+        <v>0.999137323693256</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9658064516129032</v>
+        <v>0.998966087675765</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9847229114971049</v>
+        <v>0.9989412737799833</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9933002481389576</v>
+        <v>0.9996360628618691</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9995223894749319</v>
+        <v>0.9994916202441627</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9998842018196856</v>
+        <v>0.9993548387096773</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9995864350703059</v>
+        <v>0.9994458229942101</v>
       </c>
       <c r="M2" t="n">
         <v>0.999784946236559</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9991064833471612</v>
+        <v>0.9990756192959585</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9996112489660877</v>
+        <v>0.9995285359801488</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9994954507857733</v>
+        <v>0.9994210090984283</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9984444470783457</v>
+        <v>0.9983980087708904</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9984946236559139</v>
+        <v>0.9990653432588915</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9988585607940447</v>
+        <v>0.9991480562448304</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9967245657568238</v>
+        <v>0.9995533498759305</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9995698924731182</v>
+        <v>0.9997518610421835</v>
       </c>
     </row>
     <row r="3">
@@ -614,64 +614,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998015842972504</v>
+        <v>0.999760227758842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991721978198546</v>
+        <v>0.99897315128453</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99896633092403</v>
+        <v>0.9991224318827685</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9993054275955309</v>
+        <v>0.999355082628344</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9991815499697658</v>
+        <v>0.9995373534080895</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9658814504359478</v>
+        <v>0.9989638499013299</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9848308978256665</v>
+        <v>0.9989411349706385</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9933335135692051</v>
+        <v>0.9996362672909883</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9997521341799591</v>
+        <v>0.9997273066012079</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9999090292965511</v>
+        <v>0.99935445434266</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9995864748497878</v>
+        <v>0.9994457669724106</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9997768934684396</v>
+        <v>0.999785110069472</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9995207564289994</v>
+        <v>0.9995039948599245</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9996110019490391</v>
+        <v>0.9995282888608773</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9994952991069178</v>
+        <v>0.9994208570005699</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9991637879996341</v>
+        <v>0.9991391942119519</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9984919620377718</v>
+        <v>0.9990641080530845</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9988576662937605</v>
+        <v>0.9991472312788531</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9967092096515031</v>
+        <v>0.9995535678411988</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9995700009640135</v>
+        <v>0.9997518607140029</v>
       </c>
     </row>
     <row r="4">
@@ -681,64 +681,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9996698306194256</v>
+        <v>0.9996697215176065</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9997356457504489</v>
+        <v>0.9997192257446652</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9990428444322057</v>
+        <v>0.999388370853323</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9992411640110695</v>
+        <v>0.9992741682928711</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9988446091285544</v>
+        <v>0.9991419669462651</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9640214158440785</v>
+        <v>0.9999666110183639</v>
       </c>
       <c r="H4" t="n">
-        <v>0.978194842781918</v>
+        <v>0.9990417826622111</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9889799245925657</v>
+        <v>0.9995047590272013</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9995047593871265</v>
+        <v>0.9995212337618367</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9998183453805948</v>
+        <v>0.9996693930384828</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9995045680972292</v>
+        <v>0.9993887822543464</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9996533560649762</v>
+        <v>0.9996202162970559</v>
       </c>
       <c r="N4" t="n">
-        <v>0.999092163312036</v>
+        <v>0.9992405690617018</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9998348468510203</v>
+        <v>0.9997190900908273</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9995538813026367</v>
+        <v>0.999405338905192</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9995373788351007</v>
+        <v>0.9994712644946057</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9998011861296267</v>
+        <v>0.999768539948067</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9991742011173756</v>
+        <v>0.9993223087028485</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9995017829334687</v>
+        <v>0.9994883659409676</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9996039044067566</v>
+        <v>0.9997687586037353</v>
       </c>
     </row>
     <row r="5">
@@ -748,64 +748,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999851102840567</v>
+        <v>0.9998511849378798</v>
       </c>
       <c r="C5" t="n">
-        <v>0.998627004542718</v>
+        <v>0.9982298998412787</v>
       </c>
       <c r="D5" t="n">
-        <v>0.999189343768814</v>
+        <v>0.9988583821356248</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9993381040993924</v>
+        <v>0.9994373323846534</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9995202233046905</v>
+        <v>0.9999338295659789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9678252421870722</v>
+        <v>0.9979650265447979</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9915797164906135</v>
+        <v>0.9988420447704013</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9977337310492038</v>
+        <v>0.9997684034809262</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9999834437086094</v>
+        <v>0.9999338295659789</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9999834437086094</v>
+        <v>0.9990405834382355</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9997517650922225</v>
+        <v>0.9995036122817581</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9999834437086094</v>
+        <v>0.9999503584915987</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9999503858573696</v>
+        <v>0.9997683761151552</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9993879098024191</v>
+        <v>0.9993382682940178</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9994375513108205</v>
+        <v>0.9994374144819659</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9987925400908546</v>
+        <v>0.9988090142849324</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9971878112856442</v>
+        <v>0.9983621859777791</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9985439220622845</v>
+        <v>0.998974029883422</v>
       </c>
       <c r="T5" t="n">
-        <v>0.993945377921296</v>
+        <v>0.9996196431503477</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9995369437907067</v>
+        <v>0.9997353456296864</v>
       </c>
     </row>
   </sheetData>
